--- a/data_files/TEMOA-Piedmont/TEMOA_Piedmont_scenario_name_model/scenario_name.xlsx
+++ b/data_files/TEMOA-Piedmont/TEMOA_Piedmont_scenario_name_model/scenario_name.xlsx
@@ -10638,10 +10638,10 @@
         <v>39.6954550512089</v>
       </c>
       <c r="H2">
-        <v>39.00405663344637</v>
+        <v>39.00405663344638</v>
       </c>
       <c r="I2">
-        <v>38.35283636588558</v>
+        <v>38.35283636588559</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10690,10 +10690,10 @@
         <v>36.424292224</v>
       </c>
       <c r="F4">
-        <v>33.4043065379291</v>
+        <v>33.40430653792911</v>
       </c>
       <c r="G4">
-        <v>33.92428990334661</v>
+        <v>33.92428990334662</v>
       </c>
       <c r="H4">
         <v>33.28651664071027</v>
@@ -10999,7 +10999,7 @@
         <v>681</v>
       </c>
       <c r="G22">
-        <v>0.5943211990444447</v>
+        <v>0.5943211990444448</v>
       </c>
       <c r="H22">
         <v>1.733418721377778</v>
@@ -11022,10 +11022,10 @@
         <v>681</v>
       </c>
       <c r="G23">
-        <v>256.4724558953333</v>
+        <v>256.4724558953334</v>
       </c>
       <c r="H23">
-        <v>748.0368482253334</v>
+        <v>748.0368482253332</v>
       </c>
       <c r="I23">
         <v>1029.540917423333</v>
@@ -11051,7 +11051,7 @@
         <v>7.200354688799999</v>
       </c>
       <c r="I24">
-        <v>9.910019525999997</v>
+        <v>9.910019525999999</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -11071,7 +11071,7 @@
         <v>257.2502394768213</v>
       </c>
       <c r="H25">
-        <v>750.3053599720101</v>
+        <v>750.3053599720099</v>
       </c>
       <c r="I25">
         <v>1032.663124130664</v>
@@ -11091,10 +11091,10 @@
         <v>681</v>
       </c>
       <c r="G26">
-        <v>256.4724558953333</v>
+        <v>256.4724558953334</v>
       </c>
       <c r="H26">
-        <v>748.0368482253334</v>
+        <v>748.0368482253332</v>
       </c>
       <c r="I26">
         <v>1029.540917423333</v>
@@ -12153,7 +12153,7 @@
         <v>2.297245225792445</v>
       </c>
       <c r="H80">
-        <v>2.794077984802432</v>
+        <v>2.794077984802431</v>
       </c>
       <c r="I80">
         <v>2.793655902518454</v>
@@ -12173,13 +12173,13 @@
         <v>681</v>
       </c>
       <c r="F81">
-        <v>15.17770424978724</v>
+        <v>15.17770424978723</v>
       </c>
       <c r="G81">
         <v>28.9774512781459</v>
       </c>
       <c r="H81">
-        <v>35.24449970029788</v>
+        <v>35.24449970029787</v>
       </c>
       <c r="I81">
         <v>35.23917555436778</v>
@@ -12202,13 +12202,13 @@
         <v>0.002406485531914894</v>
       </c>
       <c r="G82">
-        <v>0.004594490451584891</v>
+        <v>0.00459449045158489</v>
       </c>
       <c r="H82">
         <v>0.005588155969604864</v>
       </c>
       <c r="I82">
-        <v>0.00558731180503691</v>
+        <v>0.005587311805036909</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -12231,10 +12231,10 @@
         <v>29.02711771992753</v>
       </c>
       <c r="H83">
-        <v>35.3049076663293</v>
+        <v>35.30490766632931</v>
       </c>
       <c r="I83">
-        <v>35.29957439498024</v>
+        <v>35.29957439498023</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -12251,13 +12251,13 @@
         <v>681</v>
       </c>
       <c r="F84">
-        <v>15.17770424978724</v>
+        <v>15.17770424978723</v>
       </c>
       <c r="G84">
         <v>28.9774512781459</v>
       </c>
       <c r="H84">
-        <v>35.24449970029788</v>
+        <v>35.24449970029787</v>
       </c>
       <c r="I84">
         <v>35.23917555436778</v>
@@ -12283,7 +12283,7 @@
         <v>26.85194803211684</v>
       </c>
       <c r="H85">
-        <v>36.55211438793118</v>
+        <v>36.55211438793117</v>
       </c>
       <c r="I85">
         <v>37.22978678976391</v>
@@ -12329,7 +12329,7 @@
         <v>681</v>
       </c>
       <c r="F87">
-        <v>6.540302952941175</v>
+        <v>6.540302952941176</v>
       </c>
       <c r="G87">
         <v>24.41086184737895</v>
@@ -13142,7 +13142,7 @@
         <v>681</v>
       </c>
       <c r="E126">
-        <v>11.67102531272935</v>
+        <v>11.67102531272934</v>
       </c>
       <c r="I126">
         <v>9.508437014758162</v>
@@ -13162,7 +13162,7 @@
         <v>681</v>
       </c>
       <c r="E127">
-        <v>0.5294268266608694</v>
+        <v>0.5294268266608695</v>
       </c>
       <c r="I127">
         <v>0.4313264259428571</v>
@@ -13202,7 +13202,7 @@
         <v>681</v>
       </c>
       <c r="E129">
-        <v>11.67102531272935</v>
+        <v>11.67102531272934</v>
       </c>
       <c r="I129">
         <v>9.508437014758162</v>
@@ -13917,7 +13917,7 @@
         <v>682</v>
       </c>
       <c r="E170">
-        <v>5.998521173605632</v>
+        <v>5.998521173605635</v>
       </c>
       <c r="F170">
         <v>3.940600122394366</v>
@@ -13963,13 +13963,13 @@
         <v>682</v>
       </c>
       <c r="E172">
-        <v>24.91693410574648</v>
+        <v>24.91693410574649</v>
       </c>
       <c r="F172">
-        <v>16.36864666225353</v>
+        <v>16.36864666225352</v>
       </c>
       <c r="G172">
-        <v>5.456215582732395</v>
+        <v>5.456215582732394</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -13992,7 +13992,7 @@
         <v>1705.677547424207</v>
       </c>
       <c r="G173">
-        <v>568.5591854599584</v>
+        <v>568.5591854599585</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -14102,7 +14102,7 @@
         <v>682</v>
       </c>
       <c r="F180">
-        <v>7.828132204000004</v>
+        <v>7.828132204000001</v>
       </c>
       <c r="G180">
         <v>5.877798966</v>
@@ -14134,10 +14134,10 @@
         <v>2536.49632302</v>
       </c>
       <c r="H181">
-        <v>875.6463792323074</v>
+        <v>875.6463792323075</v>
       </c>
       <c r="I181">
-        <v>896.3831478461539</v>
+        <v>896.3831478461537</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -14154,16 +14154,16 @@
         <v>682</v>
       </c>
       <c r="F182">
-        <v>32.51685684738461</v>
+        <v>32.51685684738462</v>
       </c>
       <c r="G182">
         <v>24.415472628</v>
       </c>
       <c r="H182">
-        <v>8.428681725230772</v>
+        <v>8.428681725230771</v>
       </c>
       <c r="I182">
-        <v>8.628286984615384</v>
+        <v>8.628286984615388</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -14180,13 +14180,13 @@
         <v>682</v>
       </c>
       <c r="F183">
-        <v>3388.384744432818</v>
+        <v>3388.384744432819</v>
       </c>
       <c r="G183">
         <v>2544.188553312966</v>
       </c>
       <c r="H183">
-        <v>878.3018822358514</v>
+        <v>878.3018822358513</v>
       </c>
       <c r="I183">
         <v>899.1015375955847</v>
@@ -14212,10 +14212,10 @@
         <v>2536.49632302</v>
       </c>
       <c r="H184">
-        <v>875.6463792323074</v>
+        <v>875.6463792323075</v>
       </c>
       <c r="I184">
-        <v>896.3831478461539</v>
+        <v>896.3831478461537</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -14302,7 +14302,7 @@
         <v>682</v>
       </c>
       <c r="E190">
-        <v>0.7853424564931506</v>
+        <v>0.7853424564931509</v>
       </c>
       <c r="F190">
         <v>0.5462671236082193</v>
@@ -14325,13 +14325,13 @@
         <v>682</v>
       </c>
       <c r="E191">
-        <v>338.9054754558903</v>
+        <v>338.9054754558904</v>
       </c>
       <c r="F191">
-        <v>235.7352741109316</v>
+        <v>235.7352741109315</v>
       </c>
       <c r="G191">
-        <v>78.57842312054794</v>
+        <v>78.57842312054795</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -14371,7 +14371,7 @@
         <v>682</v>
       </c>
       <c r="E193">
-        <v>339.9332470876071</v>
+        <v>339.9332470876072</v>
       </c>
       <c r="F193">
         <v>236.4501696935427</v>
@@ -14394,13 +14394,13 @@
         <v>682</v>
       </c>
       <c r="E194">
-        <v>338.9054754558903</v>
+        <v>338.9054754558904</v>
       </c>
       <c r="F194">
-        <v>235.7352741109316</v>
+        <v>235.7352741109315</v>
       </c>
       <c r="G194">
-        <v>78.57842312054794</v>
+        <v>78.57842312054795</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -14487,13 +14487,13 @@
         <v>682</v>
       </c>
       <c r="E200">
-        <v>0.3881428582571429</v>
+        <v>0.3881428582571428</v>
       </c>
       <c r="F200">
         <v>0.2882285721714286</v>
       </c>
       <c r="G200">
-        <v>0.08635714267142856</v>
+        <v>0.08635714267142858</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -14536,7 +14536,7 @@
         <v>1.612285718914286</v>
       </c>
       <c r="F202">
-        <v>1.197257145942857</v>
+        <v>1.197257145942858</v>
       </c>
       <c r="G202">
         <v>0.3587142849428572</v>
@@ -14562,7 +14562,7 @@
         <v>124.7589171215436</v>
       </c>
       <c r="G203">
-        <v>37.3794434196141</v>
+        <v>37.37944341961411</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -14754,7 +14754,7 @@
         <v>601.0144653675201</v>
       </c>
       <c r="I215">
-        <v>50.06854367993601</v>
+        <v>50.068543679936</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -14800,13 +14800,13 @@
         <v>682</v>
       </c>
       <c r="E217">
-        <v>37.962105392</v>
+        <v>37.96210539200001</v>
       </c>
       <c r="F217">
-        <v>84.53696195999999</v>
+        <v>84.53696196</v>
       </c>
       <c r="G217">
-        <v>61.57573615999999</v>
+        <v>61.57573616000001</v>
       </c>
       <c r="H217">
         <v>28.676767592</v>
@@ -14832,10 +14832,10 @@
         <v>161.7096363062689</v>
       </c>
       <c r="F218">
-        <v>455.6560020348103</v>
+        <v>455.6560020348105</v>
       </c>
       <c r="G218">
-        <v>328.2701612720643</v>
+        <v>328.2701612720644</v>
       </c>
       <c r="H218">
         <v>144.6061263058379</v>
@@ -14919,10 +14919,10 @@
         <v>4.387499975625</v>
       </c>
       <c r="F221">
-        <v>1.828124998645834</v>
+        <v>1.828124998645833</v>
       </c>
       <c r="G221">
-        <v>0.9546875027083334</v>
+        <v>0.9546875027083335</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -14942,7 +14942,7 @@
         <v>1893.37498948125</v>
       </c>
       <c r="F222">
-        <v>788.906249415625</v>
+        <v>788.9062494156251</v>
       </c>
       <c r="G222">
         <v>411.98437616875</v>
@@ -14962,7 +14962,7 @@
         <v>682</v>
       </c>
       <c r="E223">
-        <v>18.22499989875001</v>
+        <v>18.22499989875</v>
       </c>
       <c r="F223">
         <v>7.593749994375001</v>
@@ -15011,7 +15011,7 @@
         <v>1893.37498948125</v>
       </c>
       <c r="F225">
-        <v>788.906249415625</v>
+        <v>788.9062494156251</v>
       </c>
       <c r="G225">
         <v>411.98437616875</v>
@@ -15082,7 +15082,7 @@
         <v>682</v>
       </c>
       <c r="E229">
-        <v>482.0369516230576</v>
+        <v>482.0369516230577</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -15159,7 +15159,7 @@
         <v>1.774285707857143</v>
       </c>
       <c r="F233">
-        <v>0.739285707857143</v>
+        <v>0.7392857078571429</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -15236,7 +15236,7 @@
         <v>682</v>
       </c>
       <c r="E237">
-        <v>3.553000000000001</v>
+        <v>3.553</v>
       </c>
       <c r="F237">
         <v>1.482642857142857</v>
@@ -15276,7 +15276,7 @@
         <v>682</v>
       </c>
       <c r="E239">
-        <v>3.5637749</v>
+        <v>3.563774899999999</v>
       </c>
       <c r="F239">
         <v>1.48713915</v>
@@ -15296,7 +15296,7 @@
         <v>682</v>
       </c>
       <c r="E240">
-        <v>3.553000000000001</v>
+        <v>3.553</v>
       </c>
       <c r="F240">
         <v>1.482642857142857</v>
@@ -15319,7 +15319,7 @@
         <v>7.205381353061226</v>
       </c>
       <c r="H241">
-        <v>14.41572862653061</v>
+        <v>14.41572862653062</v>
       </c>
       <c r="I241">
         <v>15.72963484591837</v>
@@ -15339,13 +15339,13 @@
         <v>682</v>
       </c>
       <c r="G242">
-        <v>3109.39918389796</v>
+        <v>3109.399183897959</v>
       </c>
       <c r="H242">
         <v>6220.941353448979</v>
       </c>
       <c r="I242">
-        <v>6787.942421969387</v>
+        <v>6787.942421969388</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -15388,7 +15388,7 @@
         <v>3118.828811048701</v>
       </c>
       <c r="H244">
-        <v>6239.807106612301</v>
+        <v>6239.8071066123</v>
       </c>
       <c r="I244">
         <v>6808.52767409505</v>
@@ -15408,13 +15408,13 @@
         <v>682</v>
       </c>
       <c r="G245">
-        <v>3109.39918389796</v>
+        <v>3109.399183897959</v>
       </c>
       <c r="H245">
         <v>6220.941353448979</v>
       </c>
       <c r="I245">
-        <v>6787.942421969387</v>
+        <v>6787.942421969388</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -15897,7 +15897,7 @@
         <v>0.0305487442975</v>
       </c>
       <c r="H278">
-        <v>0.0305487442975</v>
+        <v>0.03054874429750001</v>
       </c>
       <c r="I278">
         <v>0.01527437205125</v>
@@ -15923,7 +15923,7 @@
         <v>13.182958116075</v>
       </c>
       <c r="I279">
-        <v>6.591479015962501</v>
+        <v>6.591479015962499</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -15966,10 +15966,10 @@
         <v>13.2229370227468</v>
       </c>
       <c r="H281">
-        <v>13.22293702274679</v>
+        <v>13.2229370227468</v>
       </c>
       <c r="I281">
-        <v>6.611468469170799</v>
+        <v>6.611468469170801</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -15992,7 +15992,7 @@
         <v>13.182958116075</v>
       </c>
       <c r="I282">
-        <v>6.591479015962501</v>
+        <v>6.591479015962499</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -16557,10 +16557,10 @@
         <v>684</v>
       </c>
       <c r="F317">
-        <v>37.28513461571328</v>
+        <v>37.28513461571326</v>
       </c>
       <c r="G317">
-        <v>42.79953049075216</v>
+        <v>42.79953049075217</v>
       </c>
       <c r="H317">
         <v>45.23387195594985</v>
@@ -16583,7 +16583,7 @@
         <v>684</v>
       </c>
       <c r="F318">
-        <v>0.7267658178849745</v>
+        <v>0.726765817884975</v>
       </c>
       <c r="G318">
         <v>0.8342530100212001</v>
@@ -16609,7 +16609,7 @@
         <v>684</v>
       </c>
       <c r="F319">
-        <v>37.06505671213373</v>
+        <v>37.06505671213372</v>
       </c>
       <c r="G319">
         <v>42.5469035110812</v>
@@ -16635,10 +16635,10 @@
         <v>684</v>
       </c>
       <c r="F320">
-        <v>0.6606961980772501</v>
+        <v>0.6606961980772499</v>
       </c>
       <c r="G320">
-        <v>0.758411827292</v>
+        <v>0.7584118272920001</v>
       </c>
       <c r="H320">
         <v>0.8015485939271429</v>
@@ -16687,7 +16687,7 @@
         <v>684</v>
       </c>
       <c r="F322">
-        <v>37.06505671213373</v>
+        <v>37.06505671213372</v>
       </c>
       <c r="G322">
         <v>42.5469035110812</v>
@@ -16713,19 +16713,19 @@
         <v>684</v>
       </c>
       <c r="E323">
-        <v>23.72612923180158</v>
+        <v>23.72612923180159</v>
       </c>
       <c r="F323">
-        <v>68.80237849739679</v>
+        <v>68.80237849739676</v>
       </c>
       <c r="G323">
-        <v>27.9457151429373</v>
+        <v>27.94571514293729</v>
       </c>
       <c r="H323">
         <v>30.47746675403308</v>
       </c>
       <c r="I323">
-        <v>32.4546447217763</v>
+        <v>32.45464472177628</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -16742,19 +16742,19 @@
         <v>684</v>
       </c>
       <c r="E324">
-        <v>0.6045145214066509</v>
+        <v>0.6045145214066507</v>
       </c>
       <c r="F324">
-        <v>1.500612155050744</v>
+        <v>1.500612155050743</v>
       </c>
       <c r="G324">
-        <v>0.7120247204378393</v>
+        <v>0.712024720437839</v>
       </c>
       <c r="H324">
         <v>0.7765308432018686</v>
       </c>
       <c r="I324">
-        <v>0.8269070655040001</v>
+        <v>0.8269070655039998</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -16771,16 +16771,16 @@
         <v>684</v>
       </c>
       <c r="E325">
-        <v>23.47677733855801</v>
+        <v>23.476777338558</v>
       </c>
       <c r="F325">
-        <v>68.27351995109206</v>
+        <v>68.27351995109204</v>
       </c>
       <c r="G325">
-        <v>27.65201713234456</v>
+        <v>27.65201713234458</v>
       </c>
       <c r="H325">
-        <v>30.1571610716521</v>
+        <v>30.15716107165211</v>
       </c>
       <c r="I325">
         <v>32.11355970542015</v>
@@ -16800,19 +16800,19 @@
         <v>684</v>
       </c>
       <c r="E326">
-        <v>0.7634099622387674</v>
+        <v>0.763409962238767</v>
       </c>
       <c r="F326">
-        <v>1.604340938866627</v>
+        <v>1.604340938866628</v>
       </c>
       <c r="G326">
-        <v>0.8991790047210511</v>
+        <v>0.8991790047210507</v>
       </c>
       <c r="H326">
-        <v>0.9806404344314748</v>
+        <v>0.9806404344314746</v>
       </c>
       <c r="I326">
-        <v>1.044257961227621</v>
+        <v>1.04425796122762</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -16838,10 +16838,10 @@
         <v>0.1518547278987241</v>
       </c>
       <c r="H327">
-        <v>0.1656120588018481</v>
+        <v>0.165612058801848</v>
       </c>
       <c r="I327">
-        <v>0.1763558807900935</v>
+        <v>0.1763558807900933</v>
       </c>
     </row>
     <row r="328" spans="1:9">
@@ -16864,13 +16864,13 @@
         <v>0.001500612155050745</v>
       </c>
       <c r="G328">
-        <v>0.0007120247204378394</v>
+        <v>0.0007120247204378395</v>
       </c>
       <c r="H328">
-        <v>0.0007765308432018687</v>
+        <v>0.0007765308432018685</v>
       </c>
       <c r="I328">
-        <v>0.0008269070655040004</v>
+        <v>0.0008269070655039999</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -16887,16 +16887,16 @@
         <v>684</v>
       </c>
       <c r="E329">
-        <v>23.47677733855801</v>
+        <v>23.476777338558</v>
       </c>
       <c r="F329">
-        <v>68.27351995109206</v>
+        <v>68.27351995109204</v>
       </c>
       <c r="G329">
-        <v>27.65201713234456</v>
+        <v>27.65201713234458</v>
       </c>
       <c r="H329">
-        <v>30.1571610716521</v>
+        <v>30.15716107165211</v>
       </c>
       <c r="I329">
         <v>32.11355970542015</v>
@@ -16916,16 +16916,16 @@
         <v>684</v>
       </c>
       <c r="E330">
-        <v>0.0007620794581738335</v>
+        <v>0.0007620794581738338</v>
       </c>
       <c r="F330">
         <v>0.001602846826070132</v>
       </c>
       <c r="G330">
-        <v>0.0008976118764575765</v>
+        <v>0.0008976118764575767</v>
       </c>
       <c r="H330">
-        <v>0.0009789313316488756</v>
+        <v>0.0009789313316488758</v>
       </c>
       <c r="I330">
         <v>0.001042437983106277</v>
@@ -19549,19 +19549,19 @@
         <v>684</v>
       </c>
       <c r="E466">
-        <v>69.62954035915858</v>
+        <v>69.62954035915857</v>
       </c>
       <c r="F466">
         <v>21.9067942658982</v>
       </c>
       <c r="G466">
-        <v>38.69919210115766</v>
+        <v>38.69919210115767</v>
       </c>
       <c r="H466">
         <v>56.93864359195742</v>
       </c>
       <c r="I466">
-        <v>56.91105504260037</v>
+        <v>56.91105504260038</v>
       </c>
     </row>
     <row r="467" spans="1:9">
@@ -19581,13 +19581,13 @@
         <v>1.967018065058948</v>
       </c>
       <c r="F467">
-        <v>0.6188617616250948</v>
+        <v>0.6188617616250947</v>
       </c>
       <c r="G467">
         <v>1.093243033579627</v>
       </c>
       <c r="H467">
-        <v>1.608503225678557</v>
+        <v>1.608503225678556</v>
       </c>
       <c r="I467">
         <v>1.607723864649612</v>
@@ -19607,7 +19607,7 @@
         <v>684</v>
       </c>
       <c r="E468">
-        <v>68.94683165190631</v>
+        <v>68.94683165190636</v>
       </c>
       <c r="F468">
         <v>21.69200096072117</v>
@@ -19616,7 +19616,7 @@
         <v>38.31975148987601</v>
       </c>
       <c r="H468">
-        <v>56.38036750146546</v>
+        <v>56.3803675014655</v>
       </c>
       <c r="I468">
         <v>56.35304944981535</v>
@@ -19642,7 +19642,7 @@
         <v>0.6509587360738889</v>
       </c>
       <c r="G469">
-        <v>1.149943572827363</v>
+        <v>1.149943572827362</v>
       </c>
       <c r="H469">
         <v>1.691927492750662</v>
@@ -19668,16 +19668,16 @@
         <v>0.2645563772830287</v>
       </c>
       <c r="F470">
-        <v>0.08323453004965715</v>
+        <v>0.08323453004965714</v>
       </c>
       <c r="G470">
         <v>0.147036990005057</v>
       </c>
       <c r="H470">
-        <v>0.2163375061292572</v>
+        <v>0.2163375061292571</v>
       </c>
       <c r="I470">
-        <v>0.2162326878114</v>
+        <v>0.2162326878113999</v>
       </c>
     </row>
     <row r="471" spans="1:9">
@@ -19697,13 +19697,13 @@
         <v>0.001967018065058947</v>
       </c>
       <c r="F471">
-        <v>0.0006188617616250948</v>
+        <v>0.000618861761625095</v>
       </c>
       <c r="G471">
         <v>0.001093243033579628</v>
       </c>
       <c r="H471">
-        <v>0.001608503225678557</v>
+        <v>0.001608503225678556</v>
       </c>
       <c r="I471">
         <v>0.001607723864649612</v>
@@ -19723,7 +19723,7 @@
         <v>684</v>
       </c>
       <c r="E472">
-        <v>68.94683165190631</v>
+        <v>68.94683165190636</v>
       </c>
       <c r="F472">
         <v>21.69200096072117</v>
@@ -19732,7 +19732,7 @@
         <v>38.31975148987601</v>
       </c>
       <c r="H472">
-        <v>56.38036750146546</v>
+        <v>56.3803675014655</v>
       </c>
       <c r="I472">
         <v>56.35304944981535</v>
@@ -19755,10 +19755,10 @@
         <v>0.00206448620835785</v>
       </c>
       <c r="F473">
-        <v>0.0006495271135834827</v>
+        <v>0.0006495271135834826</v>
       </c>
       <c r="G473">
-        <v>0.001147414556852039</v>
+        <v>0.00114741455685204</v>
       </c>
       <c r="H473">
         <v>0.001688206517395354</v>
@@ -21341,7 +21341,7 @@
         <v>2.708829227996603</v>
       </c>
       <c r="F549">
-        <v>2.708829227996603</v>
+        <v>2.708829227996604</v>
       </c>
       <c r="G549">
         <v>2.708829227996603</v>
@@ -21367,7 +21367,7 @@
         <v>684</v>
       </c>
       <c r="E550">
-        <v>0.01475903209975495</v>
+        <v>0.01475903209975494</v>
       </c>
       <c r="F550">
         <v>0.01475903209975494</v>
@@ -21379,7 +21379,7 @@
         <v>0.009048382346925782</v>
       </c>
       <c r="I550">
-        <v>0.006096575846693454</v>
+        <v>0.006096575846693456</v>
       </c>
     </row>
     <row r="551" spans="1:9">
@@ -21396,7 +21396,7 @@
         <v>684</v>
       </c>
       <c r="E551">
-        <v>2.693183560709226</v>
+        <v>2.693183560709225</v>
       </c>
       <c r="F551">
         <v>2.693183560709226</v>
@@ -21428,7 +21428,7 @@
         <v>0.04947008907510454</v>
       </c>
       <c r="F552">
-        <v>0.04947008907510454</v>
+        <v>0.04947008907510453</v>
       </c>
       <c r="G552">
         <v>0.04947008907510454</v>
@@ -21483,7 +21483,7 @@
         <v>684</v>
       </c>
       <c r="E554">
-        <v>2.693183560709226</v>
+        <v>2.693183560709225</v>
       </c>
       <c r="F554">
         <v>2.693183560709226</v>
@@ -21512,16 +21512,16 @@
         <v>684</v>
       </c>
       <c r="E555">
-        <v>330.722112729543</v>
+        <v>330.7221127295429</v>
       </c>
       <c r="F555">
-        <v>177.7772936637919</v>
+        <v>177.777293663792</v>
       </c>
       <c r="G555">
         <v>180.2625071819146</v>
       </c>
       <c r="H555">
-        <v>182.9671950812747</v>
+        <v>182.9671950812746</v>
       </c>
       <c r="I555">
         <v>186.9457233780168</v>
@@ -21544,16 +21544,16 @@
         <v>6.085143062041706</v>
       </c>
       <c r="F556">
-        <v>3.037944955213621</v>
+        <v>3.03794495521362</v>
       </c>
       <c r="G556">
-        <v>3.080413497899025</v>
+        <v>3.080413497899026</v>
       </c>
       <c r="H556">
-        <v>3.126632520508939</v>
+        <v>3.126632520508938</v>
       </c>
       <c r="I556">
-        <v>3.194619548894864</v>
+        <v>3.194619548894865</v>
       </c>
     </row>
     <row r="557" spans="1:9">
@@ -21570,13 +21570,13 @@
         <v>684</v>
       </c>
       <c r="E557">
-        <v>328.6688953509238</v>
+        <v>328.6688953509239</v>
       </c>
       <c r="F557">
-        <v>176.7311054710176</v>
+        <v>176.7311054710175</v>
       </c>
       <c r="G557">
-        <v>179.2016939439138</v>
+        <v>179.2016939439137</v>
       </c>
       <c r="H557">
         <v>181.8904652292524</v>
@@ -21602,13 +21602,13 @@
         <v>6.211062497793773</v>
       </c>
       <c r="F558">
-        <v>3.169004350693167</v>
+        <v>3.169004350693166</v>
       </c>
       <c r="G558">
-        <v>3.213305014661378</v>
+        <v>3.213305014661377</v>
       </c>
       <c r="H558">
-        <v>3.261517964811695</v>
+        <v>3.261517964811696</v>
       </c>
       <c r="I558">
         <v>3.332438009143754</v>
@@ -21628,10 +21628,10 @@
         <v>684</v>
       </c>
       <c r="E559">
-        <v>0.5492754561891627</v>
+        <v>0.5492754561891626</v>
       </c>
       <c r="F559">
-        <v>0.4766502348366977</v>
+        <v>0.4766502348366978</v>
       </c>
       <c r="G559">
         <v>0.4833134995140775</v>
@@ -21640,7 +21640,7 @@
         <v>0.4905652174462558</v>
       </c>
       <c r="I559">
-        <v>0.5012323049973255</v>
+        <v>0.5012323049973256</v>
       </c>
     </row>
     <row r="560" spans="1:9">
@@ -21657,13 +21657,13 @@
         <v>684</v>
       </c>
       <c r="E560">
-        <v>0.0057386401044031</v>
+        <v>0.005738640104403102</v>
       </c>
       <c r="F560">
         <v>0.00282009641698579</v>
       </c>
       <c r="G560">
-        <v>0.002859519577288116</v>
+        <v>0.002859519577288114</v>
       </c>
       <c r="H560">
         <v>0.002902424269826874</v>
@@ -21686,13 +21686,13 @@
         <v>684</v>
       </c>
       <c r="E561">
-        <v>328.6688953509238</v>
+        <v>328.6688953509239</v>
       </c>
       <c r="F561">
-        <v>176.7311054710176</v>
+        <v>176.7311054710175</v>
       </c>
       <c r="G561">
-        <v>179.2016939439138</v>
+        <v>179.2016939439137</v>
       </c>
       <c r="H561">
         <v>181.8904652292524</v>
@@ -21715,19 +21715,19 @@
         <v>684</v>
       </c>
       <c r="E562">
-        <v>0.006203559238797446</v>
+        <v>0.006203559238797443</v>
       </c>
       <c r="F562">
-        <v>0.003165930834124098</v>
+        <v>0.003165930834124097</v>
       </c>
       <c r="G562">
-        <v>0.003210188532268586</v>
+        <v>0.003210188532268587</v>
       </c>
       <c r="H562">
-        <v>0.003258354722134586</v>
+        <v>0.003258354722134587</v>
       </c>
       <c r="I562">
-        <v>0.003329205983455977</v>
+        <v>0.003329205983455975</v>
       </c>
     </row>
     <row r="563" spans="1:9">
@@ -22260,7 +22260,7 @@
         <v>132.4686200174657</v>
       </c>
       <c r="I599">
-        <v>135.0822253857128</v>
+        <v>135.0822253857129</v>
       </c>
     </row>
     <row r="600" spans="1:9">
@@ -22286,7 +22286,7 @@
         <v>1.383716165615854</v>
       </c>
       <c r="H600">
-        <v>1.399704516732056</v>
+        <v>1.399704516732055</v>
       </c>
       <c r="I600">
         <v>1.427320667988242</v>
@@ -22315,7 +22315,7 @@
         <v>130.158083950419</v>
       </c>
       <c r="H601">
-        <v>131.6620136780085</v>
+        <v>131.6620136780086</v>
       </c>
       <c r="I601">
         <v>134.2597047061093</v>
@@ -22341,13 +22341,13 @@
         <v>2.444654026788051</v>
       </c>
       <c r="G602">
-        <v>2.478499080015507</v>
+        <v>2.478499080015506</v>
       </c>
       <c r="H602">
-        <v>2.507137240663708</v>
+        <v>2.507137240663709</v>
       </c>
       <c r="I602">
-        <v>2.556603050244502</v>
+        <v>2.556603050244503</v>
       </c>
     </row>
     <row r="603" spans="1:9">
@@ -22373,10 +22373,10 @@
         <v>1.090687407873506</v>
       </c>
       <c r="H603">
-        <v>1.103289897601795</v>
+        <v>1.103289897601794</v>
       </c>
       <c r="I603">
-        <v>1.125057815369089</v>
+        <v>1.12505781536909</v>
       </c>
     </row>
     <row r="604" spans="1:9">
@@ -22431,7 +22431,7 @@
         <v>130.158083950419</v>
       </c>
       <c r="H605">
-        <v>131.6620136780085</v>
+        <v>131.6620136780086</v>
       </c>
       <c r="I605">
         <v>134.2597047061093</v>
@@ -23024,7 +23024,7 @@
         <v>684</v>
       </c>
       <c r="E633">
-        <v>5.50247748595968</v>
+        <v>5.502477485959679</v>
       </c>
       <c r="F633">
         <v>6.310005132122881</v>
@@ -23033,10 +23033,10 @@
         <v>7.556335678550401</v>
       </c>
       <c r="H633">
-        <v>7.747701765676801</v>
+        <v>7.747701765676799</v>
       </c>
       <c r="I633">
-        <v>7.863945360307199</v>
+        <v>7.863945360307197</v>
       </c>
     </row>
     <row r="634" spans="1:9">
@@ -23053,13 +23053,13 @@
         <v>684</v>
       </c>
       <c r="E634">
-        <v>85.3457185061871</v>
+        <v>85.34571850618714</v>
       </c>
       <c r="F634">
         <v>97.8708087680309</v>
       </c>
       <c r="G634">
-        <v>117.2019148475162</v>
+        <v>117.2019148475161</v>
       </c>
       <c r="H634">
         <v>120.1700825947162</v>
@@ -23111,13 +23111,13 @@
         <v>684</v>
       </c>
       <c r="E636">
-        <v>85.3457185061871</v>
+        <v>85.34571850618714</v>
       </c>
       <c r="F636">
         <v>97.8708087680309</v>
       </c>
       <c r="G636">
-        <v>117.2019148475162</v>
+        <v>117.2019148475161</v>
       </c>
       <c r="H636">
         <v>120.1700825947162</v>
@@ -23637,7 +23637,7 @@
         <v>684</v>
       </c>
       <c r="F668">
-        <v>26.72753112211061</v>
+        <v>26.72753112211062</v>
       </c>
       <c r="G668">
         <v>68.36525072193943</v>
@@ -23692,7 +23692,7 @@
         <v>26.56162694119349</v>
       </c>
       <c r="G670">
-        <v>67.94089125253886</v>
+        <v>67.94089125253885</v>
       </c>
       <c r="H670">
         <v>110.4655322039959</v>
@@ -23715,10 +23715,10 @@
         <v>684</v>
       </c>
       <c r="F671">
-        <v>0.500744534320838</v>
+        <v>0.5007445343208381</v>
       </c>
       <c r="G671">
-        <v>1.280833814537927</v>
+        <v>1.280833814537928</v>
       </c>
       <c r="H671">
         <v>2.082515938591881</v>
@@ -23770,7 +23770,7 @@
         <v>26.56162694119349</v>
       </c>
       <c r="G673">
-        <v>67.94089125253886</v>
+        <v>67.94089125253885</v>
       </c>
       <c r="H673">
         <v>110.4655322039959</v>
@@ -23931,10 +23931,10 @@
         <v>684</v>
       </c>
       <c r="E683">
-        <v>51.40853161891916</v>
+        <v>51.40853161891917</v>
       </c>
       <c r="F683">
-        <v>41.58710321850572</v>
+        <v>41.58710321850575</v>
       </c>
     </row>
     <row r="684" spans="1:9">
@@ -23951,7 +23951,7 @@
         <v>684</v>
       </c>
       <c r="E684">
-        <v>0.7984007166044386</v>
+        <v>0.7984007166044387</v>
       </c>
       <c r="F684">
         <v>0.645868924264391</v>
@@ -23971,7 +23971,7 @@
         <v>684</v>
       </c>
       <c r="E685">
-        <v>51.07774694264706</v>
+        <v>51.07774694264705</v>
       </c>
       <c r="F685">
         <v>41.31951385117654</v>
@@ -23994,7 +23994,7 @@
         <v>1.012962132978803</v>
       </c>
       <c r="F686">
-        <v>0.8194390965149642</v>
+        <v>0.8194390965149643</v>
       </c>
     </row>
     <row r="687" spans="1:9">
@@ -24031,10 +24031,10 @@
         <v>684</v>
       </c>
       <c r="E688">
-        <v>0.0007984007166044384</v>
+        <v>0.0007984007166044387</v>
       </c>
       <c r="F688">
-        <v>0.0006458689242643912</v>
+        <v>0.000645868924264391</v>
       </c>
     </row>
     <row r="689" spans="1:9">
@@ -24051,7 +24051,7 @@
         <v>684</v>
       </c>
       <c r="E689">
-        <v>51.07774694264706</v>
+        <v>51.07774694264705</v>
       </c>
       <c r="F689">
         <v>41.31951385117654</v>
@@ -24071,10 +24071,10 @@
         <v>684</v>
       </c>
       <c r="E690">
-        <v>0.001012962132978803</v>
+        <v>0.001012962132978804</v>
       </c>
       <c r="F690">
-        <v>0.0008194390965149644</v>
+        <v>0.0008194390965149642</v>
       </c>
     </row>
     <row r="691" spans="1:9">
@@ -24094,10 +24094,10 @@
         <v>8.05405257956518</v>
       </c>
       <c r="G691">
-        <v>32.91341743056521</v>
+        <v>32.9134174305652</v>
       </c>
       <c r="H691">
-        <v>33.96217309881214</v>
+        <v>33.96217309881215</v>
       </c>
       <c r="I691">
         <v>34.70725750084451</v>
@@ -24120,10 +24120,10 @@
         <v>0.2090473005986497</v>
       </c>
       <c r="G692">
-        <v>0.85428558789008</v>
+        <v>0.8542855878900802</v>
       </c>
       <c r="H692">
-        <v>0.8815066095570404</v>
+        <v>0.8815066095570403</v>
       </c>
       <c r="I692">
         <v>0.9008456789612048</v>
@@ -24143,10 +24143,10 @@
         <v>684</v>
       </c>
       <c r="F693">
-        <v>7.966612739136532</v>
+        <v>7.966612739136534</v>
       </c>
       <c r="G693">
-        <v>32.55608875272778</v>
+        <v>32.55608875272777</v>
       </c>
       <c r="H693">
         <v>33.59345847252303</v>
@@ -24175,7 +24175,7 @@
         <v>1.094802195134641</v>
       </c>
       <c r="H694">
-        <v>1.129687056414288</v>
+        <v>1.129687056414289</v>
       </c>
       <c r="I694">
         <v>1.154470870809572</v>
@@ -24224,10 +24224,10 @@
         <v>0.0002050012238841835</v>
       </c>
       <c r="G696">
-        <v>0.0008377510283145567</v>
+        <v>0.0008377510283145565</v>
       </c>
       <c r="H696">
-        <v>0.0008644451914976402</v>
+        <v>0.0008644451914976404</v>
       </c>
       <c r="I696">
         <v>0.0008834099563275288</v>
@@ -24247,10 +24247,10 @@
         <v>684</v>
       </c>
       <c r="F697">
-        <v>7.966612739136532</v>
+        <v>7.966612739136534</v>
       </c>
       <c r="G697">
-        <v>32.55608875272778</v>
+        <v>32.55608875272777</v>
       </c>
       <c r="H697">
         <v>33.59345847252303</v>
@@ -24279,7 +24279,7 @@
         <v>0.001094802195134641</v>
       </c>
       <c r="H698">
-        <v>0.001129687056414288</v>
+        <v>0.001129687056414289</v>
       </c>
       <c r="I698">
         <v>0.001154470870809572</v>
@@ -24999,10 +24999,10 @@
         <v>684</v>
       </c>
       <c r="E731">
-        <v>13.77581655315211</v>
+        <v>13.77581655315212</v>
       </c>
       <c r="F731">
-        <v>9.839869028313094</v>
+        <v>9.8398690283131</v>
       </c>
       <c r="G731">
         <v>4.919934451163865</v>
@@ -25022,10 +25022,10 @@
         <v>684</v>
       </c>
       <c r="E732">
-        <v>0.3051584349774648</v>
+        <v>0.3051584349774647</v>
       </c>
       <c r="F732">
-        <v>0.2179703122346021</v>
+        <v>0.217970312234602</v>
       </c>
       <c r="G732">
         <v>0.1089851546897697</v>
@@ -25068,10 +25068,10 @@
         <v>684</v>
       </c>
       <c r="E734">
-        <v>0.0002426681608845071</v>
+        <v>0.000242668160884507</v>
       </c>
       <c r="F734">
-        <v>0.0001733344016426549</v>
+        <v>0.000173334401642655</v>
       </c>
       <c r="G734">
         <v>8.666719972647608E-05</v>
@@ -25091,10 +25091,10 @@
         <v>684</v>
       </c>
       <c r="E735">
-        <v>13.77581655315211</v>
+        <v>13.77581655315212</v>
       </c>
       <c r="F735">
-        <v>9.839869028313094</v>
+        <v>9.8398690283131</v>
       </c>
       <c r="G735">
         <v>4.919934451163865</v>
@@ -25571,13 +25571,13 @@
         <v>684</v>
       </c>
       <c r="E768">
-        <v>323.2727212681044</v>
+        <v>323.2727212681049</v>
       </c>
       <c r="F768">
-        <v>215.67898472875</v>
+        <v>215.6789847287501</v>
       </c>
       <c r="G768">
-        <v>72.26024483731027</v>
+        <v>72.26024483731028</v>
       </c>
     </row>
     <row r="769" spans="1:7">
@@ -25594,10 +25594,10 @@
         <v>684</v>
       </c>
       <c r="E769">
-        <v>47.78233665749656</v>
+        <v>47.78233665749651</v>
       </c>
       <c r="F769">
-        <v>224.0888548928979</v>
+        <v>224.088854892898</v>
       </c>
       <c r="G769">
         <v>89.30817177101048</v>
@@ -25617,10 +25617,10 @@
         <v>684</v>
       </c>
       <c r="E770">
-        <v>3.602413434133826</v>
+        <v>3.602413434133825</v>
       </c>
       <c r="F770">
-        <v>2.349464360957684</v>
+        <v>2.349464360957682</v>
       </c>
       <c r="G770">
         <v>0.7831596530503617</v>
@@ -25640,13 +25640,13 @@
         <v>684</v>
       </c>
       <c r="E771">
-        <v>318.4465979400001</v>
+        <v>318.4465979399999</v>
       </c>
       <c r="F771">
-        <v>207.6825636342388</v>
+        <v>207.682563634239</v>
       </c>
       <c r="G771">
-        <v>69.22752085133999</v>
+        <v>69.22752085133997</v>
       </c>
     </row>
     <row r="772" spans="1:7">
@@ -25663,7 +25663,7 @@
         <v>684</v>
       </c>
       <c r="E772">
-        <v>0.710583303753419</v>
+        <v>0.7105833037534186</v>
       </c>
       <c r="F772">
         <v>3.035776712266455</v>
@@ -25686,7 +25686,7 @@
         <v>684</v>
       </c>
       <c r="E773">
-        <v>0.03880249758817481</v>
+        <v>0.03880249758817482</v>
       </c>
       <c r="F773">
         <v>0.02530597656551013</v>
@@ -25709,10 +25709,10 @@
         <v>684</v>
       </c>
       <c r="E774">
-        <v>0.04775841478678663</v>
+        <v>0.04775841478678664</v>
       </c>
       <c r="F774">
-        <v>0.2240732536729742</v>
+        <v>0.2240732536729741</v>
       </c>
       <c r="G774">
         <v>0.08930297136438473</v>
@@ -25732,13 +25732,13 @@
         <v>684</v>
       </c>
       <c r="E775">
-        <v>322.0490113741335</v>
+        <v>322.0490113741338</v>
       </c>
       <c r="F775">
-        <v>210.0320279951965</v>
+        <v>210.0320279951967</v>
       </c>
       <c r="G775">
-        <v>70.01068050439028</v>
+        <v>70.01068050439029</v>
       </c>
     </row>
     <row r="776" spans="1:7">
@@ -25907,7 +25907,7 @@
         <v>329.4122044375627</v>
       </c>
       <c r="F786">
-        <v>446.3163936527523</v>
+        <v>446.316393652752</v>
       </c>
       <c r="G786">
         <v>228.1259559366731</v>
@@ -25927,13 +25927,13 @@
         <v>684</v>
       </c>
       <c r="E787">
-        <v>6.232693940881972</v>
+        <v>6.232693940881973</v>
       </c>
       <c r="F787">
-        <v>8.44459752805033</v>
+        <v>8.444597528050322</v>
       </c>
       <c r="G787">
-        <v>4.316292002598452</v>
+        <v>4.316292002598454</v>
       </c>
     </row>
     <row r="788" spans="1:7">
@@ -25950,7 +25950,7 @@
         <v>684</v>
       </c>
       <c r="E788">
-        <v>147.7402327488311</v>
+        <v>147.740232748831</v>
       </c>
       <c r="F788">
         <v>200.171356731957</v>
@@ -25976,7 +25976,7 @@
         <v>180.7966041516839</v>
       </c>
       <c r="F789">
-        <v>244.9590126122569</v>
+        <v>244.959012612257</v>
       </c>
       <c r="G789">
         <v>125.2060416696225</v>
@@ -25996,13 +25996,13 @@
         <v>684</v>
       </c>
       <c r="E790">
-        <v>2.401551497707146</v>
+        <v>2.401551497707145</v>
       </c>
       <c r="F790">
-        <v>3.253831485319935</v>
+        <v>3.253831485319936</v>
       </c>
       <c r="G790">
-        <v>1.663132763001374</v>
+        <v>1.663132763001373</v>
       </c>
     </row>
     <row r="791" spans="1:7">
@@ -26019,13 +26019,13 @@
         <v>684</v>
       </c>
       <c r="E791">
-        <v>0.9649534152999715</v>
+        <v>0.9649534152999711</v>
       </c>
       <c r="F791">
-        <v>1.307403071343036</v>
+        <v>1.307403071343037</v>
       </c>
       <c r="G791">
-        <v>0.6682536861383885</v>
+        <v>0.6682536861383891</v>
       </c>
     </row>
     <row r="792" spans="1:7">
@@ -26045,7 +26045,7 @@
         <v>0.006041134400241052</v>
       </c>
       <c r="F792">
-        <v>0.00818505595216591</v>
+        <v>0.008185055952165912</v>
       </c>
       <c r="G792">
         <v>0.00418363236733295</v>
@@ -26065,13 +26065,13 @@
         <v>684</v>
       </c>
       <c r="E793">
-        <v>328.536836900515</v>
+        <v>328.5368369005149</v>
       </c>
       <c r="F793">
         <v>445.1303693442139</v>
       </c>
       <c r="G793">
-        <v>227.519742648088</v>
+        <v>227.5197426480879</v>
       </c>
     </row>
     <row r="794" spans="1:7">
@@ -26091,7 +26091,7 @@
         <v>0.0003975790782641139</v>
       </c>
       <c r="F794">
-        <v>0.0005386748164391129</v>
+        <v>0.000538674816439113</v>
       </c>
       <c r="G794">
         <v>0.0002753331686748093</v>
@@ -26237,7 +26237,7 @@
         <v>684</v>
       </c>
       <c r="E804">
-        <v>223.3704042148253</v>
+        <v>223.3704042148254</v>
       </c>
       <c r="F804">
         <v>124.0946683202014</v>
@@ -26257,7 +26257,7 @@
         <v>684</v>
       </c>
       <c r="E805">
-        <v>4.179790626242038</v>
+        <v>4.17979062624204</v>
       </c>
       <c r="F805">
         <v>2.322105891710774</v>
@@ -26297,7 +26297,7 @@
         <v>684</v>
       </c>
       <c r="E807">
-        <v>4.150620070861994</v>
+        <v>4.150620070861995</v>
       </c>
       <c r="F807">
         <v>2.305900025570582</v>
@@ -26317,7 +26317,7 @@
         <v>684</v>
       </c>
       <c r="E808">
-        <v>0.1682578066751592</v>
+        <v>0.1682578066751593</v>
       </c>
       <c r="F808">
         <v>0.09347655767476941</v>
@@ -26337,10 +26337,10 @@
         <v>684</v>
       </c>
       <c r="E809">
-        <v>0.004179790626242038</v>
+        <v>0.004179790626242037</v>
       </c>
       <c r="F809">
-        <v>0.002322105891710773</v>
+        <v>0.002322105891710772</v>
       </c>
     </row>
     <row r="810" spans="1:9">
@@ -26377,10 +26377,10 @@
         <v>684</v>
       </c>
       <c r="E811">
-        <v>0.004150620070861995</v>
+        <v>0.004150620070861998</v>
       </c>
       <c r="F811">
-        <v>0.002305900025570583</v>
+        <v>0.002305900025570582</v>
       </c>
     </row>
     <row r="812" spans="1:9">
@@ -26593,7 +26593,7 @@
         <v>684</v>
       </c>
       <c r="E820">
-        <v>130.2071498996291</v>
+        <v>130.2071498996292</v>
       </c>
       <c r="F820">
         <v>72.33730545729732</v>
@@ -26673,7 +26673,7 @@
         <v>684</v>
       </c>
       <c r="E824">
-        <v>130.2071498996291</v>
+        <v>130.2071498996292</v>
       </c>
       <c r="F824">
         <v>72.33730545729732</v>
@@ -26693,7 +26693,7 @@
         <v>684</v>
       </c>
       <c r="E825">
-        <v>0.002553714124103832</v>
+        <v>0.002553714124103833</v>
       </c>
       <c r="F825">
         <v>0.001418730067238359</v>
@@ -26937,7 +26937,7 @@
         <v>684</v>
       </c>
       <c r="E842">
-        <v>292.5466996837635</v>
+        <v>292.5466996837633</v>
       </c>
     </row>
     <row r="843" spans="1:5">
@@ -26954,7 +26954,7 @@
         <v>684</v>
       </c>
       <c r="E843">
-        <v>3.052145288832</v>
+        <v>3.052145288832001</v>
       </c>
     </row>
     <row r="844" spans="1:5">
@@ -27005,7 +27005,7 @@
         <v>684</v>
       </c>
       <c r="E846">
-        <v>2.437419793697379</v>
+        <v>2.437419793697378</v>
       </c>
     </row>
     <row r="847" spans="1:5">
@@ -27022,7 +27022,7 @@
         <v>684</v>
       </c>
       <c r="E847">
-        <v>1.257766503275172</v>
+        <v>1.257766503275173</v>
       </c>
     </row>
     <row r="848" spans="1:5">
@@ -27056,7 +27056,7 @@
         <v>684</v>
       </c>
       <c r="E849">
-        <v>291.7270044966517</v>
+        <v>291.7270044966516</v>
       </c>
     </row>
     <row r="850" spans="1:6">
@@ -27073,7 +27073,7 @@
         <v>684</v>
       </c>
       <c r="E850">
-        <v>0.00190499967143669</v>
+        <v>0.001904999671436691</v>
       </c>
     </row>
     <row r="851" spans="1:6">
@@ -27093,7 +27093,7 @@
         <v>124.8690613150267</v>
       </c>
       <c r="F851">
-        <v>25.59982233257011</v>
+        <v>25.5998223325701</v>
       </c>
     </row>
     <row r="852" spans="1:6">
@@ -27110,7 +27110,7 @@
         <v>684</v>
       </c>
       <c r="E852">
-        <v>63.45082076033772</v>
+        <v>63.45082076033773</v>
       </c>
       <c r="F852">
         <v>13.00826417950217</v>
@@ -27150,10 +27150,10 @@
         <v>684</v>
       </c>
       <c r="E854">
-        <v>3.117750348415053</v>
+        <v>3.117750348415052</v>
       </c>
       <c r="F854">
-        <v>0.6391803873880716</v>
+        <v>0.6391803873880715</v>
       </c>
     </row>
     <row r="855" spans="1:6">
@@ -27210,7 +27210,7 @@
         <v>684</v>
       </c>
       <c r="E857">
-        <v>122.570070558582</v>
+        <v>122.5700705585819</v>
       </c>
       <c r="F857">
         <v>25.12849857737532</v>
@@ -27230,10 +27230,10 @@
         <v>684</v>
       </c>
       <c r="E858">
-        <v>0.003072937915724749</v>
+        <v>0.003072937915724751</v>
       </c>
       <c r="F858">
-        <v>0.0006299932410939803</v>
+        <v>0.0006299932410939805</v>
       </c>
     </row>
     <row r="859" spans="1:6">
@@ -27697,13 +27697,13 @@
         <v>51.97057543810178</v>
       </c>
       <c r="F883">
-        <v>52.77128097312462</v>
+        <v>52.7712809731246</v>
       </c>
       <c r="G883">
-        <v>60.45699791386785</v>
+        <v>60.45699791386787</v>
       </c>
       <c r="H883">
-        <v>58.88159112243102</v>
+        <v>58.881591122431</v>
       </c>
       <c r="I883">
         <v>56.64716846283905</v>
@@ -27726,13 +27726,13 @@
         <v>20.79747903908203</v>
       </c>
       <c r="F884">
-        <v>21.11790442156899</v>
+        <v>21.11790442156898</v>
       </c>
       <c r="G884">
         <v>24.19355775711919</v>
       </c>
       <c r="H884">
-        <v>23.56311413200817</v>
+        <v>23.56311413200816</v>
       </c>
       <c r="I884">
         <v>22.66894843847964</v>
@@ -27752,16 +27752,16 @@
         <v>684</v>
       </c>
       <c r="E885">
-        <v>51.1245297787333</v>
+        <v>51.12452977873333</v>
       </c>
       <c r="F885">
-        <v>51.91220035314219</v>
+        <v>51.91220035314214</v>
       </c>
       <c r="G885">
         <v>59.4727990753795</v>
       </c>
       <c r="H885">
-        <v>57.92303885166916</v>
+        <v>57.92303885166921</v>
       </c>
       <c r="I885">
         <v>55.72499104897067</v>
@@ -27781,13 +27781,13 @@
         <v>684</v>
       </c>
       <c r="E886">
-        <v>1.320318063057302</v>
+        <v>1.320318063057301</v>
       </c>
       <c r="F886">
         <v>1.340660087514597</v>
       </c>
       <c r="G886">
-        <v>1.535916534157551</v>
+        <v>1.535916534157549</v>
       </c>
       <c r="H886">
         <v>1.495893141902044</v>
@@ -27816,10 +27816,10 @@
         <v>0.05179640460065538</v>
       </c>
       <c r="G887">
-        <v>0.05934013742561404</v>
+        <v>0.05934013742561406</v>
       </c>
       <c r="H887">
-        <v>0.05779383230850204</v>
+        <v>0.05779383230850205</v>
       </c>
       <c r="I887">
         <v>0.05560068785795599</v>
@@ -27868,16 +27868,16 @@
         <v>684</v>
       </c>
       <c r="E889">
-        <v>51.12452323892697</v>
+        <v>51.12452323892698</v>
       </c>
       <c r="F889">
-        <v>51.9121937125775</v>
+        <v>51.91219371257744</v>
       </c>
       <c r="G889">
-        <v>59.47279146766986</v>
+        <v>59.47279146766985</v>
       </c>
       <c r="H889">
-        <v>57.92303144220373</v>
+        <v>57.92303144220376</v>
       </c>
       <c r="I889">
         <v>55.72498392067728</v>
@@ -29271,7 +29271,7 @@
         <v>0.063011287091626</v>
       </c>
       <c r="F959">
-        <v>0.07420106508934581</v>
+        <v>0.07420106508934576</v>
       </c>
       <c r="G959">
         <v>0.02473368877769901</v>
@@ -31293,7 +31293,7 @@
         <v>685</v>
       </c>
       <c r="E1058">
-        <v>0.7390069829999999</v>
+        <v>0.739006983</v>
       </c>
       <c r="I1058">
         <v>0.14780139725</v>
@@ -31316,7 +31316,7 @@
         <v>318.90993651</v>
       </c>
       <c r="I1059">
-        <v>63.78198758249999</v>
+        <v>63.78198758249998</v>
       </c>
     </row>
     <row r="1060" spans="1:9">
@@ -31336,7 +31336,7 @@
         <v>3.069721314000001</v>
       </c>
       <c r="I1060">
-        <v>0.6139442654999999</v>
+        <v>0.6139442655</v>
       </c>
     </row>
     <row r="1061" spans="1:9">
@@ -31356,7 +31356,7 @@
         <v>319.8770692639829</v>
       </c>
       <c r="I1061">
-        <v>63.97541413414726</v>
+        <v>63.97541413414725</v>
       </c>
     </row>
     <row r="1062" spans="1:9">
@@ -31376,7 +31376,7 @@
         <v>318.90993651</v>
       </c>
       <c r="I1062">
-        <v>63.78198758249999</v>
+        <v>63.78198758249998</v>
       </c>
     </row>
     <row r="1063" spans="1:9">
@@ -32156,10 +32156,10 @@
         <v>685</v>
       </c>
       <c r="E1107">
-        <v>0.1138000749382716</v>
+        <v>0.1138000749382717</v>
       </c>
       <c r="F1107">
-        <v>0.07966005245679011</v>
+        <v>0.07966005245679014</v>
       </c>
     </row>
     <row r="1108" spans="1:9">
@@ -32176,7 +32176,7 @@
         <v>685</v>
       </c>
       <c r="E1108">
-        <v>5.803803821851853</v>
+        <v>5.803803821851851</v>
       </c>
       <c r="F1108">
         <v>4.062662675296297</v>
@@ -32199,7 +32199,7 @@
         <v>0.1034546135802469</v>
       </c>
       <c r="F1109">
-        <v>0.07241822950617285</v>
+        <v>0.07241822950617284</v>
       </c>
     </row>
     <row r="1110" spans="1:9">
@@ -32216,7 +32216,7 @@
         <v>685</v>
       </c>
       <c r="E1110">
-        <v>5.803803821851853</v>
+        <v>5.803803821851851</v>
       </c>
       <c r="F1110">
         <v>4.062662675296297</v>
@@ -33851,7 +33851,7 @@
         <v>685</v>
       </c>
       <c r="G1197">
-        <v>0.6598013731371263</v>
+        <v>0.6598013731371264</v>
       </c>
       <c r="H1197">
         <v>0.6598013731371262</v>
@@ -33871,7 +33871,7 @@
         <v>685</v>
       </c>
       <c r="G1198">
-        <v>37.02385432444465</v>
+        <v>37.02385432444466</v>
       </c>
       <c r="H1198">
         <v>37.02385432444465</v>
@@ -33911,7 +33911,7 @@
         <v>685</v>
       </c>
       <c r="G1200">
-        <v>37.02385432444465</v>
+        <v>37.02385432444466</v>
       </c>
       <c r="H1200">
         <v>37.02385432444465</v>
@@ -34296,7 +34296,7 @@
         <v>685</v>
       </c>
       <c r="F1226">
-        <v>92.66018874272152</v>
+        <v>92.6601887427215</v>
       </c>
       <c r="G1226">
         <v>269.5423224419139</v>
@@ -34348,13 +34348,13 @@
         <v>685</v>
       </c>
       <c r="F1228">
-        <v>92.46081232799804</v>
+        <v>92.46081232799803</v>
       </c>
       <c r="G1228">
         <v>268.9623497201454</v>
       </c>
       <c r="H1228">
-        <v>269.1114435829569</v>
+        <v>269.1114435829568</v>
       </c>
       <c r="I1228">
         <v>268.8272931193809</v>
@@ -34377,13 +34377,13 @@
         <v>0.1466003049437102</v>
       </c>
       <c r="G1229">
-        <v>0.426450530712138</v>
+        <v>0.4264505307121381</v>
       </c>
       <c r="H1229">
-        <v>0.4266869249769413</v>
+        <v>0.4266869249769414</v>
       </c>
       <c r="I1229">
-        <v>0.4262363930860646</v>
+        <v>0.4262363930860645</v>
       </c>
     </row>
     <row r="1230" spans="1:9">
@@ -34400,13 +34400,13 @@
         <v>685</v>
       </c>
       <c r="F1230">
-        <v>92.46081232799804</v>
+        <v>92.46081232799803</v>
       </c>
       <c r="G1230">
         <v>268.9623497201454</v>
       </c>
       <c r="H1230">
-        <v>269.1114435829569</v>
+        <v>269.1114435829568</v>
       </c>
       <c r="I1230">
         <v>268.8272931193809</v>
@@ -34776,13 +34776,13 @@
         <v>685</v>
       </c>
       <c r="E1256">
-        <v>2272.62226613573</v>
+        <v>2272.622266135729</v>
       </c>
       <c r="F1256">
         <v>2272.622266135729</v>
       </c>
       <c r="G1256">
-        <v>3073.250750046858</v>
+        <v>3073.250750046857</v>
       </c>
       <c r="H1256">
         <v>3070.010172343646</v>
@@ -34808,13 +34808,13 @@
         <v>44.29819543405029</v>
       </c>
       <c r="F1257">
-        <v>44.29819543405028</v>
+        <v>44.29819543405029</v>
       </c>
       <c r="G1257">
         <v>59.90413117570263</v>
       </c>
       <c r="H1257">
-        <v>59.84096548972166</v>
+        <v>59.84096548972165</v>
       </c>
       <c r="I1257">
         <v>8.796473440735806</v>
@@ -34863,7 +34863,7 @@
         <v>685</v>
       </c>
       <c r="E1259">
-        <v>40.27108675822752</v>
+        <v>40.27108675822753</v>
       </c>
       <c r="F1259">
         <v>40.27108675822752</v>
@@ -35061,7 +35061,7 @@
         <v>685</v>
       </c>
       <c r="I1271">
-        <v>2649.215028105624</v>
+        <v>2649.215028105623</v>
       </c>
     </row>
     <row r="1272" spans="1:9">
@@ -35078,7 +35078,7 @@
         <v>685</v>
       </c>
       <c r="I1272">
-        <v>51.63878168869311</v>
+        <v>51.6387816886931</v>
       </c>
     </row>
     <row r="1273" spans="1:9">
@@ -35112,7 +35112,7 @@
         <v>685</v>
       </c>
       <c r="I1274">
-        <v>46.944346989721</v>
+        <v>46.94434698972101</v>
       </c>
     </row>
     <row r="1275" spans="1:9">
@@ -35379,13 +35379,13 @@
         <v>685</v>
       </c>
       <c r="E1292">
-        <v>0.2045223968349016</v>
+        <v>0.2045223968349017</v>
       </c>
       <c r="F1292">
-        <v>0.438898861452842</v>
+        <v>0.4388988614528418</v>
       </c>
       <c r="G1292">
-        <v>0.2752809434203354</v>
+        <v>0.2752809434203355</v>
       </c>
     </row>
     <row r="1293" spans="1:7">
@@ -35425,13 +35425,13 @@
         <v>685</v>
       </c>
       <c r="E1294">
-        <v>0.5206024646706586</v>
+        <v>0.5206024646706587</v>
       </c>
       <c r="F1294">
         <v>1.117197101879961</v>
       </c>
       <c r="G1294">
-        <v>0.7007151287063083</v>
+        <v>0.7007151287063084</v>
       </c>
     </row>
     <row r="1295" spans="1:7">
@@ -35802,7 +35802,7 @@
         <v>685</v>
       </c>
       <c r="E1313">
-        <v>12.48356909784003</v>
+        <v>12.48356909784004</v>
       </c>
       <c r="F1313">
         <v>12.48356909784004</v>
@@ -35825,7 +35825,7 @@
         <v>685</v>
       </c>
       <c r="E1314">
-        <v>0.2225235133304819</v>
+        <v>0.222523513330482</v>
       </c>
       <c r="F1314">
         <v>0.2225235133304819</v>
@@ -35848,7 +35848,7 @@
         <v>685</v>
       </c>
       <c r="E1315">
-        <v>12.48356909784003</v>
+        <v>12.48356909784004</v>
       </c>
       <c r="F1315">
         <v>12.48356909784004</v>
@@ -35871,13 +35871,13 @@
         <v>685</v>
       </c>
       <c r="E1316">
+        <v>9.72094639506231</v>
+      </c>
+      <c r="F1316">
         <v>9.720946395062311</v>
       </c>
-      <c r="F1316">
-        <v>9.72094639506231</v>
-      </c>
       <c r="G1316">
-        <v>1.944189244591426</v>
+        <v>1.944189244591427</v>
       </c>
     </row>
     <row r="1317" spans="1:7">
@@ -35894,10 +35894,10 @@
         <v>685</v>
       </c>
       <c r="E1317">
-        <v>386.7699259318437</v>
+        <v>386.7699259318435</v>
       </c>
       <c r="F1317">
-        <v>386.7699259318436</v>
+        <v>386.7699259318435</v>
       </c>
       <c r="G1317">
         <v>77.35398381684963</v>
@@ -35946,7 +35946,7 @@
         <v>5.156932345757914</v>
       </c>
       <c r="G1319">
-        <v>1.031386450891328</v>
+        <v>1.031386450891329</v>
       </c>
     </row>
     <row r="1320" spans="1:7">
@@ -35966,10 +35966,10 @@
         <v>0.3867699259318436</v>
       </c>
       <c r="F1320">
-        <v>0.3867699259318436</v>
+        <v>0.3867699259318437</v>
       </c>
       <c r="G1320">
-        <v>0.07735398381684966</v>
+        <v>0.07735398381684964</v>
       </c>
     </row>
     <row r="1321" spans="1:7">
@@ -36235,10 +36235,10 @@
         <v>62.97620000719539</v>
       </c>
       <c r="H1336">
-        <v>78.65806334158</v>
+        <v>78.65806334157999</v>
       </c>
       <c r="I1336">
-        <v>112.0535739411846</v>
+        <v>112.0535739411845</v>
       </c>
     </row>
     <row r="1337" spans="1:9">
@@ -36258,13 +36258,13 @@
         <v>2733.492228799559</v>
       </c>
       <c r="F1337">
-        <v>3630.939765490958</v>
+        <v>3630.939765490957</v>
       </c>
       <c r="G1337">
-        <v>2505.651118971713</v>
+        <v>2505.651118971714</v>
       </c>
       <c r="H1337">
-        <v>3129.589660942692</v>
+        <v>3129.589660942693</v>
       </c>
       <c r="I1337">
         <v>4458.305882197233</v>
@@ -36284,13 +36284,13 @@
         <v>685</v>
       </c>
       <c r="E1338">
-        <v>0.0009111640762665197</v>
+        <v>0.0009111640762665196</v>
       </c>
       <c r="F1338">
         <v>0.001210313255163652</v>
       </c>
       <c r="G1338">
-        <v>0.0008352170396572376</v>
+        <v>0.0008352170396572379</v>
       </c>
       <c r="H1338">
         <v>0.001043196553647564</v>
@@ -36354,7 +36354,7 @@
         <v>3.129589660942692</v>
       </c>
       <c r="I1340">
-        <v>4.458305882197233</v>
+        <v>4.458305882197232</v>
       </c>
     </row>
     <row r="1341" spans="1:9">
@@ -37914,7 +37914,7 @@
         <v>237.01308215115</v>
       </c>
       <c r="F1427">
-        <v>237.5256538763631</v>
+        <v>237.525653876363</v>
       </c>
       <c r="G1427">
         <v>289.4285225885889</v>
@@ -37923,7 +37923,7 @@
         <v>296.6946041188769</v>
       </c>
       <c r="I1427">
-        <v>258.4627845660386</v>
+        <v>258.4627845660387</v>
       </c>
     </row>
     <row r="1428" spans="1:9">
@@ -38062,7 +38062,7 @@
         <v>4388.211404778205</v>
       </c>
       <c r="G1432">
-        <v>4903.390770045311</v>
+        <v>4903.390770045312</v>
       </c>
       <c r="H1432">
         <v>3661.10449534278</v>
@@ -38085,13 +38085,13 @@
         <v>686</v>
       </c>
       <c r="E1433">
-        <v>5470.143577407001</v>
+        <v>5470.143577407</v>
       </c>
       <c r="F1433">
-        <v>4325.762047779</v>
+        <v>4325.762047778999</v>
       </c>
       <c r="G1433">
-        <v>4833.609810912</v>
+        <v>4833.609810911999</v>
       </c>
       <c r="H1433">
         <v>3609.002716155</v>
@@ -38117,13 +38117,13 @@
         <v>97.48332013199999</v>
       </c>
       <c r="F1434">
-        <v>77.08931960400001</v>
+        <v>77.08931960400002</v>
       </c>
       <c r="G1434">
-        <v>86.139664512</v>
+        <v>86.13966451200001</v>
       </c>
       <c r="H1434">
-        <v>64.31596578</v>
+        <v>64.31596577999998</v>
       </c>
       <c r="I1434">
         <v>55.50965679600001</v>
@@ -38143,13 +38143,13 @@
         <v>686</v>
       </c>
       <c r="E1435">
-        <v>5470.143577407001</v>
+        <v>5470.143577407</v>
       </c>
       <c r="F1435">
-        <v>4325.762047779</v>
+        <v>4325.762047778999</v>
       </c>
       <c r="G1435">
-        <v>4833.609810912</v>
+        <v>4833.609810911999</v>
       </c>
       <c r="H1435">
         <v>3609.002716155</v>
@@ -41048,7 +41048,7 @@
         <v>687</v>
       </c>
       <c r="E1590">
-        <v>63.76940300000001</v>
+        <v>63.769403</v>
       </c>
       <c r="F1590">
         <v>19.5822857</v>
@@ -41115,7 +41115,7 @@
         <v>0.3817</v>
       </c>
       <c r="H1592">
-        <v>0.3816999934</v>
+        <v>0.3816999934000001</v>
       </c>
       <c r="I1592">
         <v>0</v>
@@ -41338,16 +41338,16 @@
         <v>687</v>
       </c>
       <c r="E1600">
-        <v>216.3739946776</v>
+        <v>216.3739946776001</v>
       </c>
       <c r="F1600">
-        <v>167.9600901527999</v>
+        <v>167.9600901528</v>
       </c>
       <c r="G1600">
-        <v>172.5515490727041</v>
+        <v>172.551549072704</v>
       </c>
       <c r="H1600">
-        <v>175.6844831984001</v>
+        <v>175.6844831984</v>
       </c>
       <c r="I1600">
         <v>177.81513521136</v>
@@ -41367,16 +41367,16 @@
         <v>687</v>
       </c>
       <c r="E1601">
-        <v>216.3739946776</v>
+        <v>216.3739946776001</v>
       </c>
       <c r="F1601">
-        <v>167.9600901527999</v>
+        <v>167.9600901528</v>
       </c>
       <c r="G1601">
-        <v>172.5515490727041</v>
+        <v>172.551549072704</v>
       </c>
       <c r="H1601">
-        <v>175.6844831984001</v>
+        <v>175.6844831984</v>
       </c>
       <c r="I1601">
         <v>177.81513521136</v>
@@ -41396,16 +41396,16 @@
         <v>687</v>
       </c>
       <c r="E1602">
-        <v>216.3739946776</v>
+        <v>216.3739946776001</v>
       </c>
       <c r="F1602">
-        <v>167.9600901527999</v>
+        <v>167.9600901528</v>
       </c>
       <c r="G1602">
-        <v>172.5515490727041</v>
+        <v>172.551549072704</v>
       </c>
       <c r="H1602">
-        <v>175.6844831984001</v>
+        <v>175.6844831984</v>
       </c>
       <c r="I1602">
         <v>177.81513521136</v>
@@ -58267,7 +58267,7 @@
         <v>2011</v>
       </c>
       <c r="F842">
-        <v>2.225353533775882</v>
+        <v>2.225353533775883</v>
       </c>
     </row>
     <row r="843" spans="1:6">
@@ -58887,7 +58887,7 @@
         <v>2030</v>
       </c>
       <c r="F873">
-        <v>50.92865962226637</v>
+        <v>50.92865962226638</v>
       </c>
     </row>
     <row r="874" spans="1:6">
@@ -58907,7 +58907,7 @@
         <v>2012</v>
       </c>
       <c r="F874">
-        <v>552.3848890768901</v>
+        <v>552.38488907689</v>
       </c>
     </row>
     <row r="875" spans="1:6">
@@ -58927,7 +58927,7 @@
         <v>2020</v>
       </c>
       <c r="F875">
-        <v>91.04377013494098</v>
+        <v>91.04377013494101</v>
       </c>
     </row>
     <row r="876" spans="1:6">
@@ -58947,7 +58947,7 @@
         <v>2030</v>
       </c>
       <c r="F876">
-        <v>86.22242668441717</v>
+        <v>86.22242668441719</v>
       </c>
     </row>
     <row r="877" spans="1:6">
@@ -58967,7 +58967,7 @@
         <v>2040</v>
       </c>
       <c r="F877">
-        <v>9.394363329679804</v>
+        <v>9.394363329679797</v>
       </c>
     </row>
     <row r="878" spans="1:6">
@@ -59247,7 +59247,7 @@
         <v>2011</v>
       </c>
       <c r="F891">
-        <v>5848.722827450262</v>
+        <v>5848.722827450263</v>
       </c>
     </row>
     <row r="892" spans="1:6">
@@ -59267,7 +59267,7 @@
         <v>2012</v>
       </c>
       <c r="F892">
-        <v>1024.598815799173</v>
+        <v>1024.598815799172</v>
       </c>
     </row>
     <row r="893" spans="1:6">
